--- a/biology/Botanique/Herrainmäki/Herrainmäki.xlsx
+++ b/biology/Botanique/Herrainmäki/Herrainmäki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Herrainm%C3%A4ki</t>
+          <t>Herrainmäki</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herrainmäki est une colline et un parc du quartier de Tampella à Tampere en Finlande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Herrainm%C3%A4ki</t>
+          <t>Herrainmäki</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herrainmäki est le point culminant du centre de Tampere et fait partie du paysage industriel national de Tammerkoski[1],[2],[3].
-Herrainmäki est bordée par une zone d'immeubles résidentiels modernes[4].
-Des escaliers mènent à la colline depuis la place Pellavantori de Tampella[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herrainmäki est le point culminant du centre de Tampere et fait partie du paysage industriel national de Tammerkoski.
+Herrainmäki est bordée par une zone d'immeubles résidentiels modernes.
+Des escaliers mènent à la colline depuis la place Pellavantori de Tampella.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Herrainm%C3%A4ki</t>
+          <t>Herrainmäki</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Herrainmäki abrite des arbres et des fleurs sauvages ainsi que des pommiers et des plantes traditionnelles préservés des jardins des anciens bâtiments résidentiels.
-Le sentier naturel de Tammerkoski, achevé en 2016, traverse le parc[5],[6],[7].
+Le sentier naturel de Tammerkoski, achevé en 2016, traverse le parc.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Herrainm%C3%A4ki</t>
+          <t>Herrainmäki</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Bâtiments</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur Herrainmäki, il y a cinq villas qui ont été construites dans les années 1860 et 1960[1].
-Elles ont été à l'origine utilisées par des ingénieurs et des directeurs de l'entreprise Tampella[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur Herrainmäki, il y a cinq villas qui ont été construites dans les années 1860 et 1960.
+Elles ont été à l'origine utilisées par des ingénieurs et des directeurs de l'entreprise Tampella.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Herrainm%C3%A4ki</t>
+          <t>Herrainmäki</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(fi) Niemelä, Jari, Tamperelaisen Tiedon Portaat. Tampereen asiat aasta yyhyn, Tampere, Tampere-Seura, 2008 (ISBN 978-952-5558-05-0)</t>
         </is>
